--- a/data_Ass3_G2.xlsx
+++ b/data_Ass3_G2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dator\PycharmProjects\quantitative_finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFBB45E-E977-4E77-8329-3ECABB41BD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82946C6E-7EE7-49A9-8C4B-665ED1468A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5190" windowWidth="28800" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Returns" sheetId="2" r:id="rId1"/>
+    <sheet name="ex8" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -435,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1259"/>
+  <dimension ref="A1:H8192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33187,6 +33188,9477 @@
         <v>7.4700000000000001E-3</v>
       </c>
     </row>
+    <row r="1265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7736" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7737" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7738" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7739" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7740" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7741" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7742" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7743" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7744" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7745" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7746" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7747" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7748" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7749" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7750" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7751" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7752" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7753" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7754" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7755" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7756" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7757" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7758" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7759" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7760" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7761" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7762" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7763" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7764" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7765" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7766" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7767" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7768" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7769" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7770" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7771" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7772" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7773" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7774" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7775" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7776" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7777" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7778" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7779" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7780" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7781" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7782" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7783" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7784" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7785" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7786" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7787" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7788" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7789" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7790" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7791" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7792" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7793" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7794" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7795" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7796" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7797" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7798" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7799" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7800" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7801" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7802" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7803" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7804" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7805" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7806" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7807" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7808" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7809" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7810" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7811" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7812" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7813" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7814" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7815" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7816" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7817" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7818" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7819" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7820" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7821" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7822" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7823" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7824" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7825" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7826" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7827" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7828" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7829" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7830" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7831" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7832" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7833" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7834" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7835" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7836" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7837" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7838" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7839" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7840" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7841" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7842" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7843" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7844" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7845" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7846" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7847" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7848" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7849" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7850" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7851" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7852" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7853" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7854" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7855" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7856" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7857" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7858" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7859" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7860" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7861" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7862" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7863" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7864" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7865" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7866" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7867" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7868" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7869" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7870" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7871" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7872" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7873" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7874" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7875" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7876" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7877" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7878" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7879" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7880" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7881" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7882" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7883" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7884" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7885" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7886" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7887" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7888" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7889" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7890" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7891" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7892" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7893" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7894" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7895" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7896" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7897" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7898" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7899" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7900" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7901" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7902" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7903" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7904" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7905" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7906" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7907" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7908" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7909" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7910" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7911" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7912" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7913" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7914" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7915" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7916" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7917" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7918" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7919" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7920" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7921" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7922" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7923" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7924" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7925" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7926" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7927" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7928" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7929" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7930" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7931" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7932" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7933" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7934" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7935" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7936" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7937" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7938" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7939" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7940" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7941" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7942" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7943" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7944" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7945" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7946" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7947" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7948" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7949" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7950" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7951" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7952" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7953" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7954" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7955" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7956" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7957" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7958" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7959" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7960" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7961" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7962" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7963" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7964" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7965" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7966" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7967" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7968" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7969" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7970" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7971" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7972" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7973" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7974" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7975" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7976" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7977" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7978" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7979" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7980" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7981" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7982" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7983" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7984" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7985" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7986" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7987" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7988" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7989" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7990" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7991" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7992" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7993" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7994" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7995" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7996" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7997" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7998" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7999" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8000" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8001" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8002" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8003" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8004" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8005" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8006" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8007" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8008" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8009" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8010" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8011" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8012" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8013" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8014" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8015" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8016" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8017" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8018" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8019" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8020" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8021" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8022" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8023" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8024" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8025" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8026" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8027" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8028" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8029" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8030" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8031" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8032" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8033" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8034" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8035" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8037" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8038" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8039" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8040" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8041" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8042" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8043" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8044" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8045" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8046" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8047" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8048" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8049" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8050" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8051" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8052" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8053" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8054" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8055" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8056" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8057" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8058" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8059" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8060" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8061" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8062" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8063" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8064" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8065" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8066" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8067" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8068" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8069" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8070" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8071" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8072" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8073" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8074" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8075" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8076" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8077" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8078" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8079" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8080" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8081" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8082" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8083" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8084" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8085" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8086" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8087" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8088" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8089" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8090" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8091" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8092" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8093" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8094" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8095" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8096" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8097" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8098" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8099" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8192" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D80402-FA18-4DCD-9FAA-E7D47C78B6C3}">
+  <dimension ref="A1:F126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-3.5075087430931684E-2</v>
+      </c>
+      <c r="B2">
+        <v>-0.10601785632965643</v>
+      </c>
+      <c r="C2">
+        <v>-7.1371418312314749E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.14803879309670998</v>
+      </c>
+      <c r="E2">
+        <v>2.7092796953713361E-2</v>
+      </c>
+      <c r="F2">
+        <v>-5.6182746369437098E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4.5612434235344779E-3</v>
+      </c>
+      <c r="B3">
+        <v>1.740381006995495E-2</v>
+      </c>
+      <c r="C3">
+        <v>-1.9266509525098452E-2</v>
+      </c>
+      <c r="D3">
+        <v>-7.5430110202009626E-2</v>
+      </c>
+      <c r="E3">
+        <v>-7.1325807464204249E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.9820445653153884E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.4870830789621294E-2</v>
+      </c>
+      <c r="B4">
+        <v>2.8880836058641224E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.8462533574672264E-2</v>
+      </c>
+      <c r="D4">
+        <v>5.2625100079044973E-2</v>
+      </c>
+      <c r="E4">
+        <v>-1.1405754219764752E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.22569474836386072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.2425129406012703E-2</v>
+      </c>
+      <c r="B5">
+        <v>-7.1725097491247003E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.7038503610021376E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.4990141588121517E-2</v>
+      </c>
+      <c r="E5">
+        <v>-4.2363835157316343E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.9034940062347516E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1.3721520493824246E-2</v>
+      </c>
+      <c r="B6">
+        <v>3.4402943365012817E-3</v>
+      </c>
+      <c r="C6">
+        <v>-8.2768829611443162E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.2192914985639902E-2</v>
+      </c>
+      <c r="E6">
+        <v>-1.1800004056661595E-2</v>
+      </c>
+      <c r="F6">
+        <v>-0.14017339551047259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.7865200549662692E-3</v>
+      </c>
+      <c r="B7">
+        <v>-2.4697644819326126E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.1602391905399134E-2</v>
+      </c>
+      <c r="D7">
+        <v>-2.1698446817277173E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.5934746140840153E-2</v>
+      </c>
+      <c r="F7">
+        <v>-2.1733278002650236E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6.0204627386606369E-3</v>
+      </c>
+      <c r="B8">
+        <v>-8.0419226287880008E-3</v>
+      </c>
+      <c r="C8">
+        <v>-2.5244334283310188E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.6797726305478848E-2</v>
+      </c>
+      <c r="E8">
+        <v>-2.0141465170309236E-2</v>
+      </c>
+      <c r="F8">
+        <v>-1.1110346004464366E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.4550763303551371E-3</v>
+      </c>
+      <c r="B9">
+        <v>-9.283121647816639E-3</v>
+      </c>
+      <c r="C9">
+        <v>3.4826036898205848E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.11296387430583343</v>
+      </c>
+      <c r="E9">
+        <v>2.9334195769613602E-2</v>
+      </c>
+      <c r="F9">
+        <v>-0.13484469023467094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-7.4647438789423592E-3</v>
+      </c>
+      <c r="B10">
+        <v>-0.1053977404944727</v>
+      </c>
+      <c r="C10">
+        <v>-4.3669819645660524E-2</v>
+      </c>
+      <c r="D10">
+        <v>-4.2224819049180295E-3</v>
+      </c>
+      <c r="E10">
+        <v>3.60357811361256E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.7311935420542879E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.2922411572657833E-2</v>
+      </c>
+      <c r="B11">
+        <v>-1.5769445935156168E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.3502028886721611E-3</v>
+      </c>
+      <c r="D11">
+        <v>-1.0619768236175609E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.37506845128084E-2</v>
+      </c>
+      <c r="F11">
+        <v>-2.9795843928231758E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-4.3496214623170992E-3</v>
+      </c>
+      <c r="B12">
+        <v>4.2841526008817743E-2</v>
+      </c>
+      <c r="C12">
+        <v>-2.1929897677698373E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.7165929280039016E-2</v>
+      </c>
+      <c r="E12">
+        <v>-2.58292471589191E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.7537145626510542E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3.5460778117188951E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.12322627576529777</v>
+      </c>
+      <c r="C13">
+        <v>-1.0474591014232759E-2</v>
+      </c>
+      <c r="D13">
+        <v>-1.2665962201550029E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.9803205986875358E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.12929434628130965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-2.8612559328641929E-2</v>
+      </c>
+      <c r="B14">
+        <v>-6.8584246998671605E-2</v>
+      </c>
+      <c r="C14">
+        <v>-6.2581971013921267E-2</v>
+      </c>
+      <c r="D14">
+        <v>-2.4699198138410039E-2</v>
+      </c>
+      <c r="E14">
+        <v>-7.2102599184812322E-3</v>
+      </c>
+      <c r="F14">
+        <v>-0.24429094392754147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.2330959875240142E-2</v>
+      </c>
+      <c r="B15">
+        <v>-3.5570544534078263E-2</v>
+      </c>
+      <c r="C15">
+        <v>-5.5236213523061295E-2</v>
+      </c>
+      <c r="D15">
+        <v>-9.5181864439131569E-2</v>
+      </c>
+      <c r="E15">
+        <v>-1.2538633323574855E-2</v>
+      </c>
+      <c r="F15">
+        <v>-0.11110853722557101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-9.1012448145506575E-3</v>
+      </c>
+      <c r="B16">
+        <v>-0.13613754932422051</v>
+      </c>
+      <c r="C16">
+        <v>-1.6205471001263794E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.2091122159402889E-2</v>
+      </c>
+      <c r="E16">
+        <v>2.8020346721383316E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.19885139724133327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-2.5241399815948307E-2</v>
+      </c>
+      <c r="B17">
+        <v>-5.7478698224878721E-3</v>
+      </c>
+      <c r="C17">
+        <v>-1.9452681391134208E-2</v>
+      </c>
+      <c r="D17">
+        <v>-0.1746473082472817</v>
+      </c>
+      <c r="E17">
+        <v>4.0963716882467693E-2</v>
+      </c>
+      <c r="F17">
+        <v>-0.19432623891008627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-3.5999450519545784E-2</v>
+      </c>
+      <c r="B18">
+        <v>-0.10894579578332342</v>
+      </c>
+      <c r="C18">
+        <v>-5.4531515692065713E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.10806769358317214</v>
+      </c>
+      <c r="E18">
+        <v>-6.1564427116585496E-2</v>
+      </c>
+      <c r="F18">
+        <v>5.2954035172354974E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5.0392192507977551E-3</v>
+      </c>
+      <c r="B19">
+        <v>8.3735239882264612E-2</v>
+      </c>
+      <c r="C19">
+        <v>-3.574547252329896E-2</v>
+      </c>
+      <c r="D19">
+        <v>-0.10536180901913361</v>
+      </c>
+      <c r="E19">
+        <v>5.8331480540820602E-2</v>
+      </c>
+      <c r="F19">
+        <v>4.468928134777328E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.0485176799670759E-2</v>
+      </c>
+      <c r="B20">
+        <v>-0.1808229575636312</v>
+      </c>
+      <c r="C20">
+        <v>-2.5494336850976351E-3</v>
+      </c>
+      <c r="D20">
+        <v>0.12574831028105837</v>
+      </c>
+      <c r="E20">
+        <v>8.0373208238222915E-2</v>
+      </c>
+      <c r="F20">
+        <v>-2.1392104831195913E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.076339310082E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.14717974305745773</v>
+      </c>
+      <c r="C21">
+        <v>7.2214839505075901E-3</v>
+      </c>
+      <c r="D21">
+        <v>-7.7890037709953397E-3</v>
+      </c>
+      <c r="E21">
+        <v>3.4015640919547119E-2</v>
+      </c>
+      <c r="F21">
+        <v>6.0111738062437414E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1.8751663267603691E-2</v>
+      </c>
+      <c r="B22">
+        <v>-1.317395340170513E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.10854434722943562</v>
+      </c>
+      <c r="D22">
+        <v>-2.4402019561708954E-4</v>
+      </c>
+      <c r="E22">
+        <v>-7.4380808319129965E-3</v>
+      </c>
+      <c r="F22">
+        <v>9.276937865213819E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-2.4013585245108549E-2</v>
+      </c>
+      <c r="B23">
+        <v>-0.11666163071816138</v>
+      </c>
+      <c r="C23">
+        <v>-3.3446872659512294E-2</v>
+      </c>
+      <c r="D23">
+        <v>3.115481779793261E-2</v>
+      </c>
+      <c r="E23">
+        <v>-4.1994152867393941E-3</v>
+      </c>
+      <c r="F23">
+        <v>-6.1327765591148942E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.0407538467653428E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.13875336371078828</v>
+      </c>
+      <c r="C24">
+        <v>3.1911832972274956E-2</v>
+      </c>
+      <c r="D24">
+        <v>-3.300221577209328E-3</v>
+      </c>
+      <c r="E24">
+        <v>5.7681825636826112E-3</v>
+      </c>
+      <c r="F24">
+        <v>0.18591284213945536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-3.3804980050071154E-2</v>
+      </c>
+      <c r="B25">
+        <v>-4.3483871026131271E-2</v>
+      </c>
+      <c r="C25">
+        <v>-0.10467114725848536</v>
+      </c>
+      <c r="D25">
+        <v>-1.6542971341419355E-2</v>
+      </c>
+      <c r="E25">
+        <v>-1.8237935169699737E-2</v>
+      </c>
+      <c r="F25">
+        <v>-8.5003601526724148E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.9805024526957657E-2</v>
+      </c>
+      <c r="B26">
+        <v>-2.7979884716520909E-2</v>
+      </c>
+      <c r="C26">
+        <v>4.0123520931855339E-2</v>
+      </c>
+      <c r="D26">
+        <v>-1.5583489014127982E-2</v>
+      </c>
+      <c r="E26">
+        <v>5.0961427109247781E-2</v>
+      </c>
+      <c r="F26">
+        <v>0.28204111334059756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-9.6468318657371266E-2</v>
+      </c>
+      <c r="B27">
+        <v>-0.2140200176223368</v>
+      </c>
+      <c r="C27">
+        <v>-0.12759846359876681</v>
+      </c>
+      <c r="D27">
+        <v>-3.4211951545525032E-2</v>
+      </c>
+      <c r="E27">
+        <v>-1.6662867065456388E-2</v>
+      </c>
+      <c r="F27">
+        <v>-0.24999828145534242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-7.3152607428239591E-5</v>
+      </c>
+      <c r="B28">
+        <v>9.148777052481849E-3</v>
+      </c>
+      <c r="C28">
+        <v>3.2100276408275619E-3</v>
+      </c>
+      <c r="D28">
+        <v>-1.132049160458648E-2</v>
+      </c>
+      <c r="E28">
+        <v>6.5741873715711829E-2</v>
+      </c>
+      <c r="F28">
+        <v>-7.5548273288652212E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-3.579441198894795E-2</v>
+      </c>
+      <c r="B29">
+        <v>-6.8021892830165576E-2</v>
+      </c>
+      <c r="C29">
+        <v>6.1027615587373907E-2</v>
+      </c>
+      <c r="D29">
+        <v>3.1978040470974634E-3</v>
+      </c>
+      <c r="E29">
+        <v>2.4306979357738845E-2</v>
+      </c>
+      <c r="F29">
+        <v>-0.10576094847913564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.0616153959439876E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.22906808674821511</v>
+      </c>
+      <c r="C30">
+        <v>6.2290795317106129E-2</v>
+      </c>
+      <c r="D30">
+        <v>-1.1008875509544214E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.9440158705216204E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.11289578542983092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.1262553745014419E-2</v>
+      </c>
+      <c r="B31">
+        <v>0.21599863798751029</v>
+      </c>
+      <c r="C31">
+        <v>6.8350533707399741E-2</v>
+      </c>
+      <c r="D31">
+        <v>-0.10830192476171296</v>
+      </c>
+      <c r="E31">
+        <v>5.7172024363662421E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.2173803396496754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.4152273177846553E-3</v>
+      </c>
+      <c r="B32">
+        <v>-5.4278817494009868E-2</v>
+      </c>
+      <c r="C32">
+        <v>-2.415513914645584E-2</v>
+      </c>
+      <c r="D32">
+        <v>1.8643115308788927E-2</v>
+      </c>
+      <c r="E32">
+        <v>7.9155367559500256E-3</v>
+      </c>
+      <c r="F32">
+        <v>0.10319250023054782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5.5572557626146768E-3</v>
+      </c>
+      <c r="B33">
+        <v>7.8264463950969754E-2</v>
+      </c>
+      <c r="C33">
+        <v>-3.6680360211653551E-2</v>
+      </c>
+      <c r="D33">
+        <v>-1.1548724519849785E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.4014303290886385E-2</v>
+      </c>
+      <c r="F33">
+        <v>-7.2001831857638754E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.7301151586526018E-2</v>
+      </c>
+      <c r="B34">
+        <v>-1.6174206498331678E-3</v>
+      </c>
+      <c r="C34">
+        <v>9.1006579528844389E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.13551433839633864</v>
+      </c>
+      <c r="E34">
+        <v>-4.8572239094798575E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.24999036577751332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1.5303037488447191E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.12116409405845552</v>
+      </c>
+      <c r="C35">
+        <v>-1.9298590499184476E-2</v>
+      </c>
+      <c r="D35">
+        <v>-9.8098824697702813E-2</v>
+      </c>
+      <c r="E35">
+        <v>6.4164720664098951E-2</v>
+      </c>
+      <c r="F35">
+        <v>5.7981604121243535E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1.9806447444794539E-3</v>
+      </c>
+      <c r="B36">
+        <v>0.1397802803270467</v>
+      </c>
+      <c r="C36">
+        <v>1.4342109137281289E-2</v>
+      </c>
+      <c r="D36">
+        <v>6.0429389047169435E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.396337501822666E-3</v>
+      </c>
+      <c r="F36">
+        <v>0.1068522351371568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.5336539684399426E-2</v>
+      </c>
+      <c r="B37">
+        <v>4.4435167322816937E-2</v>
+      </c>
+      <c r="C37">
+        <v>0.12765575339013813</v>
+      </c>
+      <c r="D37">
+        <v>-1.4251616431334102E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.2089399614589231E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.11632837715775213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1.2262626260587606E-2</v>
+      </c>
+      <c r="B38">
+        <v>-2.8022696516765255E-2</v>
+      </c>
+      <c r="C38">
+        <v>-3.8640761348600061E-2</v>
+      </c>
+      <c r="D38">
+        <v>-1.5899669547840944E-2</v>
+      </c>
+      <c r="E38">
+        <v>3.5182184132380723E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.20841745750089924</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3.3088156091098941E-3</v>
+      </c>
+      <c r="B39">
+        <v>0.16415485777038641</v>
+      </c>
+      <c r="C39">
+        <v>-9.5004736513511823E-2</v>
+      </c>
+      <c r="D39">
+        <v>2.4387543552888413E-2</v>
+      </c>
+      <c r="E39">
+        <v>5.3363992884935874E-2</v>
+      </c>
+      <c r="F39">
+        <v>-7.5234824017830548E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3.7802523075229466E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.2712703869819999</v>
+      </c>
+      <c r="C40">
+        <v>6.8206830097877535E-2</v>
+      </c>
+      <c r="D40">
+        <v>-5.8205356140537123E-2</v>
+      </c>
+      <c r="E40">
+        <v>-2.9277073373726092E-2</v>
+      </c>
+      <c r="F40">
+        <v>7.3421249376896647E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-2.3604358378321866E-3</v>
+      </c>
+      <c r="B41">
+        <v>-6.7736783813899581E-2</v>
+      </c>
+      <c r="C41">
+        <v>-3.2136886448324464E-2</v>
+      </c>
+      <c r="D41">
+        <v>7.4590197620233001E-2</v>
+      </c>
+      <c r="E41">
+        <v>-1.4140300622549895E-2</v>
+      </c>
+      <c r="F41">
+        <v>0.16450247498507897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1.1073815627156369E-2</v>
+      </c>
+      <c r="B42">
+        <v>-2.0903693761966546E-2</v>
+      </c>
+      <c r="C42">
+        <v>4.7646521395232844E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.14448742938505377</v>
+      </c>
+      <c r="E42">
+        <v>-2.4466899104276241E-2</v>
+      </c>
+      <c r="F42">
+        <v>6.0313728199239414E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-1.7428802168432123E-3</v>
+      </c>
+      <c r="B43">
+        <v>5.6721371587969305E-2</v>
+      </c>
+      <c r="C43">
+        <v>-4.7394016138893047E-3</v>
+      </c>
+      <c r="D43">
+        <v>1.6072733130547912E-2</v>
+      </c>
+      <c r="E43">
+        <v>-3.156959062949094E-2</v>
+      </c>
+      <c r="F43">
+        <v>0.10777043612918091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-8.3648007079220044E-3</v>
+      </c>
+      <c r="B44">
+        <v>4.4089609416115838E-3</v>
+      </c>
+      <c r="C44">
+        <v>-3.3088454274414092E-2</v>
+      </c>
+      <c r="D44">
+        <v>-1.0524132858473756E-2</v>
+      </c>
+      <c r="E44">
+        <v>-1.2117110299092126E-2</v>
+      </c>
+      <c r="F44">
+        <v>-0.18648475293415656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.1676730080302242E-3</v>
+      </c>
+      <c r="B45">
+        <v>-1.666972680808021E-2</v>
+      </c>
+      <c r="C45">
+        <v>1.6038424001818097E-2</v>
+      </c>
+      <c r="D45">
+        <v>4.6315188456319101E-2</v>
+      </c>
+      <c r="E45">
+        <v>2.3675621705928185E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.10796858531132592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-8.4484265472293263E-3</v>
+      </c>
+      <c r="B46">
+        <v>2.1431341131244563E-2</v>
+      </c>
+      <c r="C46">
+        <v>-7.6904610810990204E-2</v>
+      </c>
+      <c r="D46">
+        <v>3.5303271301150296E-3</v>
+      </c>
+      <c r="E46">
+        <v>-5.4106842945444988E-2</v>
+      </c>
+      <c r="F46">
+        <v>-2.6991194059440504E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-4.5970259683236758E-4</v>
+      </c>
+      <c r="B47">
+        <v>2.6232363395206404E-2</v>
+      </c>
+      <c r="C47">
+        <v>-4.1124701935879582E-3</v>
+      </c>
+      <c r="D47">
+        <v>-2.6973252750740917E-2</v>
+      </c>
+      <c r="E47">
+        <v>-1.114009710711994E-2</v>
+      </c>
+      <c r="F47">
+        <v>9.5537597062883117E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2.2011925229073581E-2</v>
+      </c>
+      <c r="B48">
+        <v>4.2592470490592893E-2</v>
+      </c>
+      <c r="C48">
+        <v>5.5840742703262336E-2</v>
+      </c>
+      <c r="D48">
+        <v>-0.10843128650351685</v>
+      </c>
+      <c r="E48">
+        <v>-4.2265797687052076E-2</v>
+      </c>
+      <c r="F48">
+        <v>-0.1146161800026082</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.1591618571013669E-2</v>
+      </c>
+      <c r="B49">
+        <v>9.065355513815887E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.0676187982477279E-2</v>
+      </c>
+      <c r="D49">
+        <v>0.26350926970219657</v>
+      </c>
+      <c r="E49">
+        <v>2.8346730229808159E-2</v>
+      </c>
+      <c r="F49">
+        <v>0.39318102620736894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2.1869494670595291E-2</v>
+      </c>
+      <c r="B50">
+        <v>9.0246104169746655E-3</v>
+      </c>
+      <c r="C50">
+        <v>0.10300709404664876</v>
+      </c>
+      <c r="D50">
+        <v>1.3895958925297158E-2</v>
+      </c>
+      <c r="E50">
+        <v>-1.6270483087492349E-2</v>
+      </c>
+      <c r="F50">
+        <v>0.17903470748950268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3.0956821667094125E-4</v>
+      </c>
+      <c r="B51">
+        <v>-1.2659665625515792E-2</v>
+      </c>
+      <c r="C51">
+        <v>-5.6069019946175636E-2</v>
+      </c>
+      <c r="D51">
+        <v>4.6423704562631452E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.3881660894094603E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.11991099632433344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.3301593807282259E-3</v>
+      </c>
+      <c r="B52">
+        <v>-0.10867893308231658</v>
+      </c>
+      <c r="C52">
+        <v>7.8681548878327678E-3</v>
+      </c>
+      <c r="D52">
+        <v>-2.6226444277738126E-2</v>
+      </c>
+      <c r="E52">
+        <v>-1.6159024812007927E-2</v>
+      </c>
+      <c r="F52">
+        <v>-1.2081924121526089E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.3981927497928703E-2</v>
+      </c>
+      <c r="B53">
+        <v>6.2649535560719949E-2</v>
+      </c>
+      <c r="C53">
+        <v>5.7951636700325215E-2</v>
+      </c>
+      <c r="D53">
+        <v>-1.8630983671318657E-2</v>
+      </c>
+      <c r="E53">
+        <v>1.1846485553402397E-2</v>
+      </c>
+      <c r="F53">
+        <v>-9.5282442689693769E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>-2.6582242538407685E-3</v>
+      </c>
+      <c r="B54">
+        <v>-6.8528790282815E-2</v>
+      </c>
+      <c r="C54">
+        <v>-2.3527207697990216E-2</v>
+      </c>
+      <c r="D54">
+        <v>2.1063563353487247E-3</v>
+      </c>
+      <c r="E54">
+        <v>6.9771901612534215E-3</v>
+      </c>
+      <c r="F54">
+        <v>0.31014710925074218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.0152536244127726E-2</v>
+      </c>
+      <c r="B55">
+        <v>-4.2771857963828874E-2</v>
+      </c>
+      <c r="C55">
+        <v>-7.6035394201971807E-2</v>
+      </c>
+      <c r="D55">
+        <v>8.6192939439513783E-2</v>
+      </c>
+      <c r="E55">
+        <v>7.1687622050324862E-2</v>
+      </c>
+      <c r="F55">
+        <v>5.6043714084869301E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>-8.2966385239968687E-4</v>
+      </c>
+      <c r="B56">
+        <v>-0.15888733078258077</v>
+      </c>
+      <c r="C56">
+        <v>-3.3341179266518473E-2</v>
+      </c>
+      <c r="D56">
+        <v>-2.7012425705249532E-2</v>
+      </c>
+      <c r="E56">
+        <v>-3.2815666051236425E-2</v>
+      </c>
+      <c r="F56">
+        <v>-6.9126176764888969E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>-7.7352906181592518E-3</v>
+      </c>
+      <c r="B57">
+        <v>6.3986817923802342E-3</v>
+      </c>
+      <c r="C57">
+        <v>2.3223403275955512E-2</v>
+      </c>
+      <c r="D57">
+        <v>-5.37737523617976E-2</v>
+      </c>
+      <c r="E57">
+        <v>3.3042602646972341E-2</v>
+      </c>
+      <c r="F57">
+        <v>3.4495434593055263E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>6.6477232756285698E-3</v>
+      </c>
+      <c r="B58">
+        <v>7.3191716250867511E-2</v>
+      </c>
+      <c r="C58">
+        <v>5.8807603995861601E-2</v>
+      </c>
+      <c r="D58">
+        <v>2.6943579268412732E-2</v>
+      </c>
+      <c r="E58">
+        <v>3.7867992318174615E-3</v>
+      </c>
+      <c r="F58">
+        <v>-3.7700328476300449E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>-1.6207091101027027E-3</v>
+      </c>
+      <c r="B59">
+        <v>5.0383468532964493E-2</v>
+      </c>
+      <c r="C59">
+        <v>-2.6586213937682679E-3</v>
+      </c>
+      <c r="D59">
+        <v>-5.7490851225702189E-3</v>
+      </c>
+      <c r="E59">
+        <v>1.4674066312912348E-2</v>
+      </c>
+      <c r="F59">
+        <v>-2.034623352575049E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2.2028375958598412E-2</v>
+      </c>
+      <c r="B60">
+        <v>1.9747210378950442E-2</v>
+      </c>
+      <c r="C60">
+        <v>2.7127655329076905E-2</v>
+      </c>
+      <c r="D60">
+        <v>-3.2987140109147051E-2</v>
+      </c>
+      <c r="E60">
+        <v>2.1430265016023409E-2</v>
+      </c>
+      <c r="F60">
+        <v>-0.21615741062972194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>-6.8268251195816587E-3</v>
+      </c>
+      <c r="B61">
+        <v>-0.1964906216549055</v>
+      </c>
+      <c r="C61">
+        <v>-1.7398653567682998E-2</v>
+      </c>
+      <c r="D61">
+        <v>2.56002575185168E-2</v>
+      </c>
+      <c r="E61">
+        <v>6.9167001907211034E-3</v>
+      </c>
+      <c r="F61">
+        <v>0.11971217846398119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2.4306676067968658E-2</v>
+      </c>
+      <c r="B62">
+        <v>8.2876738563114616E-2</v>
+      </c>
+      <c r="C62">
+        <v>-1.1185873381193701E-2</v>
+      </c>
+      <c r="D62">
+        <v>-2.1038918559118658E-3</v>
+      </c>
+      <c r="E62">
+        <v>6.8012339615757478E-2</v>
+      </c>
+      <c r="F62">
+        <v>-1.4917359872658076E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7.5623969554652337E-3</v>
+      </c>
+      <c r="B63">
+        <v>-2.8791198312667188E-2</v>
+      </c>
+      <c r="C63">
+        <v>-2.1216068901245388E-2</v>
+      </c>
+      <c r="D63">
+        <v>-1.875546697300734E-2</v>
+      </c>
+      <c r="E63">
+        <v>-7.9584529671556936E-3</v>
+      </c>
+      <c r="F63">
+        <v>6.1384092715907057E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-7.6171141512010321E-3</v>
+      </c>
+      <c r="B64">
+        <v>1.9753252858492276E-2</v>
+      </c>
+      <c r="C64">
+        <v>-8.172487891846103E-3</v>
+      </c>
+      <c r="D64">
+        <v>1.4888320848701619E-2</v>
+      </c>
+      <c r="E64">
+        <v>-3.2480331809390695E-2</v>
+      </c>
+      <c r="F64">
+        <v>1.8434622477471851E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.3077506408325945E-2</v>
+      </c>
+      <c r="B65">
+        <v>-3.6581501228676983E-2</v>
+      </c>
+      <c r="C65">
+        <v>-1.7482849009011092E-2</v>
+      </c>
+      <c r="D65">
+        <v>-2.9316156759909506E-2</v>
+      </c>
+      <c r="E65">
+        <v>1.4616606624271222E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.10946851358034104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6.4897208022760555E-3</v>
+      </c>
+      <c r="B66">
+        <v>2.4570294963832007E-2</v>
+      </c>
+      <c r="C66">
+        <v>-9.8232759874140485E-2</v>
+      </c>
+      <c r="D66">
+        <v>-1.7249088854046968E-2</v>
+      </c>
+      <c r="E66">
+        <v>2.8210221501312027E-2</v>
+      </c>
+      <c r="F66">
+        <v>1.7069102932138813E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-6.0595070913188609E-3</v>
+      </c>
+      <c r="B67">
+        <v>-1.8538154308693766E-2</v>
+      </c>
+      <c r="C67">
+        <v>-5.1688327544759827E-2</v>
+      </c>
+      <c r="D67">
+        <v>-5.4484384653271101E-2</v>
+      </c>
+      <c r="E67">
+        <v>1.601073525667096E-2</v>
+      </c>
+      <c r="F67">
+        <v>-5.0315379170214225E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-5.0828929537918288E-3</v>
+      </c>
+      <c r="B68">
+        <v>8.2480392688734083E-2</v>
+      </c>
+      <c r="C68">
+        <v>-1.9787030234981851E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.22923599414261719</v>
+      </c>
+      <c r="E68">
+        <v>1.2003748469255227E-2</v>
+      </c>
+      <c r="F68">
+        <v>-6.6819268201630533E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2.3507664918058779E-2</v>
+      </c>
+      <c r="B69">
+        <v>8.7730265420923326E-2</v>
+      </c>
+      <c r="C69">
+        <v>5.8209333833191046E-2</v>
+      </c>
+      <c r="D69">
+        <v>3.7773230986357653E-3</v>
+      </c>
+      <c r="E69">
+        <v>-1.1124625399418386E-2</v>
+      </c>
+      <c r="F69">
+        <v>5.7720989669318712E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9.4080610582640833E-3</v>
+      </c>
+      <c r="B70">
+        <v>0.1603545317934203</v>
+      </c>
+      <c r="C70">
+        <v>6.1965909970200572E-2</v>
+      </c>
+      <c r="D70">
+        <v>5.6401858116637449E-2</v>
+      </c>
+      <c r="E70">
+        <v>-4.7220697195782479E-2</v>
+      </c>
+      <c r="F70">
+        <v>4.2554997917091386E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.9971097095495827E-2</v>
+      </c>
+      <c r="B71">
+        <v>-2.0433054202170675E-2</v>
+      </c>
+      <c r="C71">
+        <v>1.0861734520321464E-2</v>
+      </c>
+      <c r="D71">
+        <v>0.12988421230264202</v>
+      </c>
+      <c r="E71">
+        <v>3.9340611432995942E-2</v>
+      </c>
+      <c r="F71">
+        <v>8.9476630847615812E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4.5455981765551989E-4</v>
+      </c>
+      <c r="B72">
+        <v>9.1817273088934392E-3</v>
+      </c>
+      <c r="C72">
+        <v>1.6253209331494656E-2</v>
+      </c>
+      <c r="D72">
+        <v>-0.10708171116702558</v>
+      </c>
+      <c r="E72">
+        <v>4.5411974235036734E-3</v>
+      </c>
+      <c r="F72">
+        <v>-0.11167537117092319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.2318080591452008E-2</v>
+      </c>
+      <c r="B73">
+        <v>-0.26302718682316506</v>
+      </c>
+      <c r="C73">
+        <v>-0.12424760344807451</v>
+      </c>
+      <c r="D73">
+        <v>6.8782367100647113E-2</v>
+      </c>
+      <c r="E73">
+        <v>4.3835986733442578E-2</v>
+      </c>
+      <c r="F73">
+        <v>-5.0286385780941467E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6.8217573137068221E-3</v>
+      </c>
+      <c r="B74">
+        <v>0.11219147950117048</v>
+      </c>
+      <c r="C74">
+        <v>1.4879528535836295E-2</v>
+      </c>
+      <c r="D74">
+        <v>-5.1160925264610357E-2</v>
+      </c>
+      <c r="E74">
+        <v>-1.7442286525592432E-2</v>
+      </c>
+      <c r="F74">
+        <v>-2.9031893967170652E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.6724644292303026E-2</v>
+      </c>
+      <c r="B75">
+        <v>7.1012132806076433E-3</v>
+      </c>
+      <c r="C75">
+        <v>8.0005604345948722E-2</v>
+      </c>
+      <c r="D75">
+        <v>-3.4782755174782576E-2</v>
+      </c>
+      <c r="E75">
+        <v>-3.7879999103385131E-4</v>
+      </c>
+      <c r="F75">
+        <v>-0.11697163701852142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.9793087549391686E-2</v>
+      </c>
+      <c r="B76">
+        <v>1.7141362274682548E-2</v>
+      </c>
+      <c r="C76">
+        <v>-2.4865861572777925E-2</v>
+      </c>
+      <c r="D76">
+        <v>2.7033488247259596E-2</v>
+      </c>
+      <c r="E76">
+        <v>-8.7683956164639865E-2</v>
+      </c>
+      <c r="F76">
+        <v>8.4668349733194814E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2.3311503978597381E-2</v>
+      </c>
+      <c r="B77">
+        <v>-6.7331987167906449E-2</v>
+      </c>
+      <c r="C77">
+        <v>5.581230783803659E-2</v>
+      </c>
+      <c r="D77">
+        <v>9.6796632206301858E-3</v>
+      </c>
+      <c r="E77">
+        <v>1.3769581807159925E-2</v>
+      </c>
+      <c r="F77">
+        <v>0.1276360370633054</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.5444701271060808E-2</v>
+      </c>
+      <c r="B78">
+        <v>-4.6700431224399597E-2</v>
+      </c>
+      <c r="C78">
+        <v>7.9882171861600515E-3</v>
+      </c>
+      <c r="D78">
+        <v>-9.4864744188793981E-3</v>
+      </c>
+      <c r="E78">
+        <v>-3.320455459779037E-2</v>
+      </c>
+      <c r="F78">
+        <v>5.3743309106015325E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>-5.1048716696232899E-2</v>
+      </c>
+      <c r="B79">
+        <v>4.4594873952972236E-3</v>
+      </c>
+      <c r="C79">
+        <v>-5.0832611528607408E-2</v>
+      </c>
+      <c r="D79">
+        <v>-2.1140633202430648E-2</v>
+      </c>
+      <c r="E79">
+        <v>-3.680870949403281E-2</v>
+      </c>
+      <c r="F79">
+        <v>-9.9685192539071377E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6.4154325733660755E-3</v>
+      </c>
+      <c r="B80">
+        <v>9.7573082148801671E-2</v>
+      </c>
+      <c r="C80">
+        <v>4.6614188923139288E-2</v>
+      </c>
+      <c r="D80">
+        <v>-2.5082864992445941E-2</v>
+      </c>
+      <c r="E80">
+        <v>-1.2109469303538289E-2</v>
+      </c>
+      <c r="F80">
+        <v>5.9985470767172089E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.3310761977920027E-2</v>
+      </c>
+      <c r="B81">
+        <v>2.2018173710145472E-3</v>
+      </c>
+      <c r="C81">
+        <v>1.346401666463648E-2</v>
+      </c>
+      <c r="D81">
+        <v>-2.2047579683397212E-2</v>
+      </c>
+      <c r="E81">
+        <v>6.5796518176901575E-3</v>
+      </c>
+      <c r="F81">
+        <v>4.4395016828438383E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>-4.0802801394753674E-3</v>
+      </c>
+      <c r="B82">
+        <v>-0.13677567691833503</v>
+      </c>
+      <c r="C82">
+        <v>1.2398073433001366E-2</v>
+      </c>
+      <c r="D82">
+        <v>1.1282533910495163E-2</v>
+      </c>
+      <c r="E82">
+        <v>1.4816744247689417E-2</v>
+      </c>
+      <c r="F82">
+        <v>-8.0088522984695709E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>-1.9780486150247967E-2</v>
+      </c>
+      <c r="B83">
+        <v>9.3898156473415373E-3</v>
+      </c>
+      <c r="C83">
+        <v>2.084560375149147E-3</v>
+      </c>
+      <c r="D83">
+        <v>2.2303869354777905E-2</v>
+      </c>
+      <c r="E83">
+        <v>4.894597991573546E-2</v>
+      </c>
+      <c r="F83">
+        <v>-0.11011555719345678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.4338928241220517E-2</v>
+      </c>
+      <c r="B84">
+        <v>1.3964084851170622E-2</v>
+      </c>
+      <c r="C84">
+        <v>6.3145978463335695E-2</v>
+      </c>
+      <c r="D84">
+        <v>-3.6485167856195044E-3</v>
+      </c>
+      <c r="E84">
+        <v>-1.7583483814515355E-2</v>
+      </c>
+      <c r="F84">
+        <v>8.982880275681504E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>-2.4544785897931742E-2</v>
+      </c>
+      <c r="B85">
+        <v>-8.0286487965373521E-2</v>
+      </c>
+      <c r="C85">
+        <v>-5.6058899524560446E-2</v>
+      </c>
+      <c r="D85">
+        <v>-3.1909676115468244E-2</v>
+      </c>
+      <c r="E85">
+        <v>7.3875555065603393E-2</v>
+      </c>
+      <c r="F85">
+        <v>8.1106543138577569E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3.8317286566832642E-2</v>
+      </c>
+      <c r="B86">
+        <v>-8.7214253528875574E-3</v>
+      </c>
+      <c r="C86">
+        <v>-1.933990513199968E-2</v>
+      </c>
+      <c r="D86">
+        <v>2.6385786351497353E-2</v>
+      </c>
+      <c r="E86">
+        <v>-4.7324497575610414E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.172922215185916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6.6578487291677479E-3</v>
+      </c>
+      <c r="B87">
+        <v>9.9083145158465058E-3</v>
+      </c>
+      <c r="C87">
+        <v>-7.2790972736248682E-2</v>
+      </c>
+      <c r="D87">
+        <v>-1.7447825348865131E-2</v>
+      </c>
+      <c r="E87">
+        <v>1.559300398015373E-2</v>
+      </c>
+      <c r="F87">
+        <v>0.12324728508511473</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1.9518828228534346E-2</v>
+      </c>
+      <c r="B88">
+        <v>3.8849087091464396E-2</v>
+      </c>
+      <c r="C88">
+        <v>-1.9363024278228336E-3</v>
+      </c>
+      <c r="D88">
+        <v>-2.6152697097562072E-2</v>
+      </c>
+      <c r="E88">
+        <v>-1.9406755054141467E-2</v>
+      </c>
+      <c r="F88">
+        <v>0.13472644988093974</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>-2.3733639745204149E-2</v>
+      </c>
+      <c r="B89">
+        <v>4.3422076979626523E-2</v>
+      </c>
+      <c r="C89">
+        <v>-5.364176819563804E-3</v>
+      </c>
+      <c r="D89">
+        <v>-7.659628364745541E-3</v>
+      </c>
+      <c r="E89">
+        <v>8.3266450864850183E-2</v>
+      </c>
+      <c r="F89">
+        <v>-8.261807453111758E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3.0040291653316453E-2</v>
+      </c>
+      <c r="B90">
+        <v>-2.1959988028103949E-2</v>
+      </c>
+      <c r="C90">
+        <v>1.8299446495335436E-2</v>
+      </c>
+      <c r="D90">
+        <v>2.9021356142978183E-2</v>
+      </c>
+      <c r="E90">
+        <v>-7.490786935299143E-4</v>
+      </c>
+      <c r="F90">
+        <v>0.10606015780121703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>-1.4184715223761746E-3</v>
+      </c>
+      <c r="B91">
+        <v>4.1382117672804419E-2</v>
+      </c>
+      <c r="C91">
+        <v>5.2503280162227162E-2</v>
+      </c>
+      <c r="D91">
+        <v>2.442266757557876E-2</v>
+      </c>
+      <c r="E91">
+        <v>-1.3134137616596875E-2</v>
+      </c>
+      <c r="F91">
+        <v>0.17127263456870701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1.0277133050532017E-2</v>
+      </c>
+      <c r="B92">
+        <v>-4.3132601569892404E-2</v>
+      </c>
+      <c r="C92">
+        <v>0.1552066231104996</v>
+      </c>
+      <c r="D92">
+        <v>0.38531831337776734</v>
+      </c>
+      <c r="E92">
+        <v>4.3154883094783658E-2</v>
+      </c>
+      <c r="F92">
+        <v>1.5953264388284261E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.8328423853284379E-2</v>
+      </c>
+      <c r="B93">
+        <v>3.8003044845061451E-2</v>
+      </c>
+      <c r="C93">
+        <v>4.5778781271022195E-2</v>
+      </c>
+      <c r="D93">
+        <v>5.1668515304878371E-2</v>
+      </c>
+      <c r="E93">
+        <v>4.4711218578392664E-3</v>
+      </c>
+      <c r="F93">
+        <v>0.280293869012467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>-2.4908431445721524E-3</v>
+      </c>
+      <c r="B94">
+        <v>2.2984605581927608E-2</v>
+      </c>
+      <c r="C94">
+        <v>9.0053979167468157E-3</v>
+      </c>
+      <c r="D94">
+        <v>-0.11839280984209377</v>
+      </c>
+      <c r="E94">
+        <v>2.8936958283178438E-2</v>
+      </c>
+      <c r="F94">
+        <v>0.19162692522500313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>8.7495708008136219E-3</v>
+      </c>
+      <c r="B95">
+        <v>4.4956243525855921E-2</v>
+      </c>
+      <c r="C95">
+        <v>4.0278248878019784E-2</v>
+      </c>
+      <c r="D95">
+        <v>-1.4292013928938752E-2</v>
+      </c>
+      <c r="E95">
+        <v>-0.10243689460670447</v>
+      </c>
+      <c r="F95">
+        <v>8.206169453954737E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>-1.8411218966298382E-2</v>
+      </c>
+      <c r="B96">
+        <v>-5.3721281644230068E-3</v>
+      </c>
+      <c r="C96">
+        <v>-2.3778518559344319E-2</v>
+      </c>
+      <c r="D96">
+        <v>-1.2601011769586279E-6</v>
+      </c>
+      <c r="E96">
+        <v>4.0012582586566037E-3</v>
+      </c>
+      <c r="F96">
+        <v>-0.16363337567257463</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>-4.9398574625403646E-2</v>
+      </c>
+      <c r="B97">
+        <v>-1.8376917060649811E-2</v>
+      </c>
+      <c r="C97">
+        <v>-0.1194262831289612</v>
+      </c>
+      <c r="D97">
+        <v>-2.9000089156336895E-2</v>
+      </c>
+      <c r="E97">
+        <v>1.2410059312372601E-2</v>
+      </c>
+      <c r="F97">
+        <v>-7.89311056356089E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7.5782889403097631E-3</v>
+      </c>
+      <c r="B98">
+        <v>-1.7606717114949988E-2</v>
+      </c>
+      <c r="C98">
+        <v>2.4651902057040376E-2</v>
+      </c>
+      <c r="D98">
+        <v>-2.5873133176327223E-2</v>
+      </c>
+      <c r="E98">
+        <v>3.9397774614482017E-2</v>
+      </c>
+      <c r="F98">
+        <v>-0.17575595765936169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>-4.4807462243067753E-2</v>
+      </c>
+      <c r="B99">
+        <v>1.792469522416873E-2</v>
+      </c>
+      <c r="C99">
+        <v>-3.5060143250391307E-2</v>
+      </c>
+      <c r="D99">
+        <v>-3.0121267291452924E-2</v>
+      </c>
+      <c r="E99">
+        <v>-1.3409731304434347E-2</v>
+      </c>
+      <c r="F99">
+        <v>-7.1074653437079749E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.1840752520601914E-2</v>
+      </c>
+      <c r="B100">
+        <v>-4.4401270693983363E-3</v>
+      </c>
+      <c r="C100">
+        <v>-1.0971539373047623E-2</v>
+      </c>
+      <c r="D100">
+        <v>-1.8939079935324843E-2</v>
+      </c>
+      <c r="E100">
+        <v>4.116072037267493E-2</v>
+      </c>
+      <c r="F100">
+        <v>0.10879332249398233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>-8.759444667396421E-2</v>
+      </c>
+      <c r="B101">
+        <v>-2.2329947040439224E-3</v>
+      </c>
+      <c r="C101">
+        <v>-0.17000586658097472</v>
+      </c>
+      <c r="D101">
+        <v>-2.7371895784791156E-2</v>
+      </c>
+      <c r="E101">
+        <v>-1.976509659054182E-2</v>
+      </c>
+      <c r="F101">
+        <v>-0.15774371275098897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4.1591870914772011E-2</v>
+      </c>
+      <c r="B102">
+        <v>3.3392456326035713E-3</v>
+      </c>
+      <c r="C102">
+        <v>2.8117045090984227E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.10928328867455361</v>
+      </c>
+      <c r="E102">
+        <v>-2.2836007313460693E-2</v>
+      </c>
+      <c r="F102">
+        <v>0.14659947175803856</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.3462903074807926E-2</v>
+      </c>
+      <c r="B103">
+        <v>3.554909092246672E-2</v>
+      </c>
+      <c r="C103">
+        <v>7.1950276567501747E-2</v>
+      </c>
+      <c r="D103">
+        <v>1.4919943583912021E-2</v>
+      </c>
+      <c r="E103">
+        <v>3.38839435112821E-2</v>
+      </c>
+      <c r="F103">
+        <v>-3.9366241535954694E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4.1671948691356375E-2</v>
+      </c>
+      <c r="B104">
+        <v>9.440510058980589E-2</v>
+      </c>
+      <c r="C104">
+        <v>6.8092920839670779E-2</v>
+      </c>
+      <c r="D104">
+        <v>2.941698093395928E-2</v>
+      </c>
+      <c r="E104">
+        <v>-5.641008173375317E-3</v>
+      </c>
+      <c r="F104">
+        <v>0.1796592512153572</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2.1207658466532164E-2</v>
+      </c>
+      <c r="B105">
+        <v>4.8908067270831967E-3</v>
+      </c>
+      <c r="C105">
+        <v>6.7994793768460848E-2</v>
+      </c>
+      <c r="D105">
+        <v>-1.4279898122197321E-2</v>
+      </c>
+      <c r="E105">
+        <v>2.9477342664243622E-3</v>
+      </c>
+      <c r="F105">
+        <v>2.7436586480890313E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>-6.7284181169303681E-3</v>
+      </c>
+      <c r="B106">
+        <v>1.5671071507647349E-2</v>
+      </c>
+      <c r="C106">
+        <v>-9.7802878917589875E-2</v>
+      </c>
+      <c r="D106">
+        <v>2.1741458539965786E-2</v>
+      </c>
+      <c r="E106">
+        <v>3.0053915713845525E-2</v>
+      </c>
+      <c r="F106">
+        <v>-6.4286694789915111E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1.8260307425135958E-2</v>
+      </c>
+      <c r="B107">
+        <v>-5.7917441196681074E-2</v>
+      </c>
+      <c r="C107">
+        <v>4.7808070606819131E-2</v>
+      </c>
+      <c r="D107">
+        <v>-6.2405582720793218E-2</v>
+      </c>
+      <c r="E107">
+        <v>3.2530452296066992E-2</v>
+      </c>
+      <c r="F107">
+        <v>0.14680418159570818</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1.6823246173391926E-2</v>
+      </c>
+      <c r="B108">
+        <v>-8.5023091834112274E-2</v>
+      </c>
+      <c r="C108">
+        <v>4.3857310103948555E-2</v>
+      </c>
+      <c r="D108">
+        <v>6.6622611350036554E-2</v>
+      </c>
+      <c r="E108">
+        <v>4.3006002474899052E-3</v>
+      </c>
+      <c r="F108">
+        <v>0.12919468671639955</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1.0882048169224001E-2</v>
+      </c>
+      <c r="B109">
+        <v>-2.5741355712304848E-2</v>
+      </c>
+      <c r="C109">
+        <v>4.0920128443028281E-2</v>
+      </c>
+      <c r="D109">
+        <v>-3.6924969122317464E-2</v>
+      </c>
+      <c r="E109">
+        <v>-1.7109792183376826E-2</v>
+      </c>
+      <c r="F109">
+        <v>-5.272906214512374E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5.8934776074288653E-3</v>
+      </c>
+      <c r="B110">
+        <v>2.4128810075648266E-2</v>
+      </c>
+      <c r="C110">
+        <v>-2.6210978478717006E-2</v>
+      </c>
+      <c r="D110">
+        <v>6.4282148920844939E-2</v>
+      </c>
+      <c r="E110">
+        <v>6.9153217718354032E-3</v>
+      </c>
+      <c r="F110">
+        <v>2.9081490759425899E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>-1.3104369339194788E-2</v>
+      </c>
+      <c r="B111">
+        <v>4.5071176887145903E-3</v>
+      </c>
+      <c r="C111">
+        <v>7.5475141862755279E-2</v>
+      </c>
+      <c r="D111">
+        <v>0.26246213045790956</v>
+      </c>
+      <c r="E111">
+        <v>2.2122639501240604E-2</v>
+      </c>
+      <c r="F111">
+        <v>-9.8997913719419683E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>-4.5760824715425308E-2</v>
+      </c>
+      <c r="B112">
+        <v>-6.513195431934593E-2</v>
+      </c>
+      <c r="C112">
+        <v>-9.1892281574436963E-2</v>
+      </c>
+      <c r="D112">
+        <v>-0.13186879609379709</v>
+      </c>
+      <c r="E112">
+        <v>-1.2055690391057139E-2</v>
+      </c>
+      <c r="F112">
+        <v>-2.1431251255865202E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4.842966744805044E-2</v>
+      </c>
+      <c r="B113">
+        <v>2.7652582975022044E-2</v>
+      </c>
+      <c r="C113">
+        <v>4.9754218392400684E-2</v>
+      </c>
+      <c r="D113">
+        <v>6.3204053334244836E-3</v>
+      </c>
+      <c r="E113">
+        <v>3.2296444380569111E-2</v>
+      </c>
+      <c r="F113">
+        <v>0.10760366171772118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2.1836338143454537E-2</v>
+      </c>
+      <c r="B114">
+        <v>8.8898900902698808E-2</v>
+      </c>
+      <c r="C114">
+        <v>8.4636988881324537E-2</v>
+      </c>
+      <c r="D114">
+        <v>2.2579135615937496E-2</v>
+      </c>
+      <c r="E114">
+        <v>1.7367895907158815E-3</v>
+      </c>
+      <c r="F114">
+        <v>3.2904331944405563E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.3569333393715031E-2</v>
+      </c>
+      <c r="B115">
+        <v>1.5039889004299534E-2</v>
+      </c>
+      <c r="C115">
+        <v>7.0165994628856865E-3</v>
+      </c>
+      <c r="D115">
+        <v>3.559086751449092E-2</v>
+      </c>
+      <c r="E115">
+        <v>2.153542262891972E-2</v>
+      </c>
+      <c r="F115">
+        <v>0.1323698689621764</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3.3534795659193595E-3</v>
+      </c>
+      <c r="B116">
+        <v>-2.1154697349685336E-2</v>
+      </c>
+      <c r="C116">
+        <v>-4.7108785765209826E-2</v>
+      </c>
+      <c r="D116">
+        <v>-3.6719662212995274E-2</v>
+      </c>
+      <c r="E116">
+        <v>1.3248070644783727E-2</v>
+      </c>
+      <c r="F116">
+        <v>-2.6464065982745755E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>-4.9135585854192754E-2</v>
+      </c>
+      <c r="B117">
+        <v>2.5956085382495164E-2</v>
+      </c>
+      <c r="C117">
+        <v>-0.15941262900256403</v>
+      </c>
+      <c r="D117">
+        <v>0.16358864808205098</v>
+      </c>
+      <c r="E117">
+        <v>-3.2423885341208436E-2</v>
+      </c>
+      <c r="F117">
+        <v>-3.1363147369286026E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>-2.6145964746477901E-3</v>
+      </c>
+      <c r="B118">
+        <v>-4.8657864745331958E-2</v>
+      </c>
+      <c r="C118">
+        <v>-2.8472347458629255E-2</v>
+      </c>
+      <c r="D118">
+        <v>3.3828252580876184E-2</v>
+      </c>
+      <c r="E118">
+        <v>2.6869728794402192E-2</v>
+      </c>
+      <c r="F118">
+        <v>-6.6304196521260073E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3.5718729448434017E-2</v>
+      </c>
+      <c r="B119">
+        <v>1.1143975692148755E-2</v>
+      </c>
+      <c r="C119">
+        <v>0.14266567980022105</v>
+      </c>
+      <c r="D119">
+        <v>-1.6678908344228915E-2</v>
+      </c>
+      <c r="E119">
+        <v>-1.5300022501190114E-2</v>
+      </c>
+      <c r="F119">
+        <v>-1.6356152831369375E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>-4.9951678609440053E-3</v>
+      </c>
+      <c r="B120">
+        <v>7.1579117232100087E-2</v>
+      </c>
+      <c r="C120">
+        <v>-1.3895102028019468E-2</v>
+      </c>
+      <c r="D120">
+        <v>2.4262136548065305E-2</v>
+      </c>
+      <c r="E120">
+        <v>3.4171896800617274E-2</v>
+      </c>
+      <c r="F120">
+        <v>-2.3480724341686132E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>-2.6528676772818671E-2</v>
+      </c>
+      <c r="B121">
+        <v>-3.0910854185050018E-3</v>
+      </c>
+      <c r="C121">
+        <v>-8.2869530882375919E-2</v>
+      </c>
+      <c r="D121">
+        <v>3.4385731781471751E-2</v>
+      </c>
+      <c r="E121">
+        <v>-3.7714451028934559E-2</v>
+      </c>
+      <c r="F121">
+        <v>-4.3700016444159107E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.7128791565666841E-2</v>
+      </c>
+      <c r="B122">
+        <v>-3.0936475125547647E-2</v>
+      </c>
+      <c r="C122">
+        <v>0.12752852528287217</v>
+      </c>
+      <c r="D122">
+        <v>-1.1668642415972541E-2</v>
+      </c>
+      <c r="E122">
+        <v>-1.9442394855011536E-2</v>
+      </c>
+      <c r="F122">
+        <v>0.1161829313307241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2.9478275222137862E-2</v>
+      </c>
+      <c r="B123">
+        <v>-2.8728947649034109E-2</v>
+      </c>
+      <c r="C123">
+        <v>3.1747069735785116E-2</v>
+      </c>
+      <c r="D123">
+        <v>0.25124047905223601</v>
+      </c>
+      <c r="E123">
+        <v>-4.0113729658536212E-2</v>
+      </c>
+      <c r="F123">
+        <v>0.14725890103312933</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1.5373334188840015E-2</v>
+      </c>
+      <c r="B124">
+        <v>0.11943351899543786</v>
+      </c>
+      <c r="C124">
+        <v>-2.6089107994911709E-2</v>
+      </c>
+      <c r="D124">
+        <v>3.9678711784194132E-2</v>
+      </c>
+      <c r="E124">
+        <v>-3.3410760272944651E-2</v>
+      </c>
+      <c r="F124">
+        <v>0.14219755733711414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1.8058153946642896E-4</v>
+      </c>
+      <c r="B125">
+        <v>-2.3595608332817375E-2</v>
+      </c>
+      <c r="C125">
+        <v>-3.8633853495281367E-2</v>
+      </c>
+      <c r="D125">
+        <v>3.2829898088012843E-2</v>
+      </c>
+      <c r="E125">
+        <v>1.7674715912316508E-2</v>
+      </c>
+      <c r="F125">
+        <v>-3.8759258275185227E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2.662664938788728E-2</v>
+      </c>
+      <c r="B126">
+        <v>5.0366504297757686E-2</v>
+      </c>
+      <c r="C126">
+        <v>5.0967040270753161E-2</v>
+      </c>
+      <c r="D126">
+        <v>0.12712608103415723</v>
+      </c>
+      <c r="E126">
+        <v>3.9621826710443342E-2</v>
+      </c>
+      <c r="F126">
+        <v>6.5767007725273663E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
